--- a/output/CEP-Datasets/V.2CEP-Idpart-Izquierda-Extraconcertacion-Sexo.xlsx
+++ b/output/CEP-Datasets/V.2CEP-Idpart-Izquierda-Extraconcertacion-Sexo.xlsx
@@ -426,34 +426,34 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.251783444355472</v>
+        <v>0.0319927233939347</v>
       </c>
       <c r="C2">
-        <v>0.2626699236209973</v>
+        <v>0.0292329996664665</v>
       </c>
       <c r="E2">
-        <v>0.4086107168052884</v>
+        <v>0.02265481382586877</v>
       </c>
       <c r="F2">
-        <v>0.4089444707958647</v>
+        <v>0.03106638002885817</v>
       </c>
       <c r="G2">
-        <v>0.418932759693694</v>
+        <v>0.02938883259515323</v>
       </c>
       <c r="H2">
-        <v>0.5362784885014377</v>
+        <v>0.0300947324599575</v>
       </c>
       <c r="I2">
-        <v>0.5980742038657884</v>
+        <v>0.0209535588501988</v>
       </c>
       <c r="J2">
-        <v>0.6813698171391667</v>
+        <v>0.007624059821416201</v>
       </c>
       <c r="K2">
-        <v>0.7639468333620534</v>
+        <v>0.005482603032631053</v>
       </c>
       <c r="L2">
-        <v>0.7718969651864716</v>
+        <v>0.02774785242799675</v>
       </c>
     </row>
     <row r="3">
@@ -463,37 +463,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.279991146273442</v>
+        <v>0.0172836287305966</v>
       </c>
       <c r="C3">
-        <v>0.2830344204623363</v>
+        <v>0.02118879745907587</v>
       </c>
       <c r="D3">
-        <v>0.3725999406040343</v>
+        <v>0.0108405684980412</v>
       </c>
       <c r="E3">
-        <v>0.438538163269173</v>
+        <v>0.0206026501263521</v>
       </c>
       <c r="F3">
-        <v>0.418089028282392</v>
+        <v>0.01717479036081116</v>
       </c>
       <c r="G3">
-        <v>0.477146023121483</v>
+        <v>0.02002063798955797</v>
       </c>
       <c r="H3">
-        <v>0.5951604153950987</v>
+        <v>0.01753440556250627</v>
       </c>
       <c r="I3">
-        <v>0.6444413370314073</v>
+        <v>0.0140351179650152</v>
       </c>
       <c r="J3">
-        <v>0.7395186369417514</v>
+        <v>0.0045935825479351</v>
       </c>
       <c r="K3">
-        <v>0.7981833256355078</v>
+        <v>0.005802436377481166</v>
       </c>
       <c r="L3">
-        <v>0.8374797374117204</v>
+        <v>0.01905063784707385</v>
       </c>
     </row>
   </sheetData>
